--- a/week-2/Exercises/2-4-B-modeling-different-scenarios/break-even-pulse-check.xlsx
+++ b/week-2/Exercises/2-4-B-modeling-different-scenarios/break-even-pulse-check.xlsx
@@ -12,18 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
-    <sheet name="Start" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="CostItemSold">Start!$B$2</definedName>
-    <definedName name="PostageCost">Start!$B$3</definedName>
-    <definedName name="SalesPrice">Start!$B$1</definedName>
-    <definedName name="TotalProfit">'[1]Finish '!$B$15</definedName>
-  </definedNames>
-  <calcPr calcId="162913" calcMode="autoNoTable" iterate="1" iterateCount="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,39 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Total profits</t>
+    <t>Cost of item</t>
   </si>
   <si>
-    <t>Total costs</t>
+    <t>Shipping</t>
   </si>
   <si>
-    <t>Ink</t>
+    <t>Handling</t>
   </si>
   <si>
-    <t>Paper</t>
+    <t>Revenue per item</t>
   </si>
   <si>
-    <t>Mailer</t>
+    <t>Cost per item</t>
   </si>
   <si>
-    <t>Postage</t>
-  </si>
-  <si>
-    <t>Cost of item sold</t>
-  </si>
-  <si>
-    <t>Total sales</t>
-  </si>
-  <si>
-    <t>Cost of item sold?</t>
-  </si>
-  <si>
-    <t>Cost of postage?</t>
-  </si>
-  <si>
-    <t>Sales price?</t>
+    <t>Profit per item</t>
   </si>
   <si>
     <r>
@@ -73,7 +49,6 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -85,7 +60,6 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -96,7 +70,6 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -107,15 +80,15 @@
       <t>column</t>
     </r>
   </si>
-  <si>
-    <t>Calculate the profitability with the following sale price/postage costs:</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,15 +105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,11 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,25 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Finish "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="15">
-          <cell r="B15">
-            <v>1.8130000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,233 +425,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B3:B5)</f>
+        <v>5.6800000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <f>B1-B6</f>
+        <v>-0.6800000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <f>B8</f>
+        <v>-0.6800000000000006</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="dataTable" ref="B13:F17" dt2D="1" dtr="1" r1="B1" r2="B4"/>
+        <v>-0.6800000000000006</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.3199999999999994</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.32</v>
+      </c>
+      <c r="E13" s="3">
+        <v>14.32</v>
+      </c>
+      <c r="F13" s="3">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-3.6799999999999997</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11.32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <f>SalesPrice</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f>CostItemSold</f>
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f>PostageCost</f>
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <f>SUM(B9:B12)</f>
-        <v>2.677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <f>B6-B13</f>
-        <v>7.3230000000000004</v>
+      <c r="B15" s="3">
+        <v>-6.68</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-1.6799999999999997</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-9.68</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-4.68</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10.32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>1.8130000000000002</v>
-      </c>
-      <c r="C20">
-        <v>6.8130000000000006</v>
-      </c>
-      <c r="D20">
-        <v>11.813000000000001</v>
-      </c>
-      <c r="E20">
-        <v>16.812999999999999</v>
-      </c>
-      <c r="F20">
-        <v>21.812999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>-1.1870000000000003</v>
-      </c>
-      <c r="C21">
-        <v>3.8129999999999997</v>
-      </c>
-      <c r="D21">
-        <v>8.8129999999999988</v>
-      </c>
-      <c r="E21">
-        <v>13.812999999999999</v>
-      </c>
-      <c r="F21">
-        <v>18.812999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>-4.1869999999999994</v>
-      </c>
-      <c r="C22">
-        <v>0.81300000000000061</v>
-      </c>
-      <c r="D22">
-        <v>5.8130000000000006</v>
-      </c>
-      <c r="E22">
-        <v>10.813000000000001</v>
-      </c>
-      <c r="F22">
-        <v>15.813000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>-7.1869999999999994</v>
-      </c>
-      <c r="C23">
-        <v>-2.1869999999999994</v>
-      </c>
-      <c r="D23">
-        <v>2.8130000000000006</v>
-      </c>
-      <c r="E23">
-        <v>7.8130000000000006</v>
-      </c>
-      <c r="F23">
-        <v>12.813000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>-10.186999999999999</v>
-      </c>
-      <c r="C24">
-        <v>-5.1869999999999994</v>
-      </c>
-      <c r="D24">
-        <v>-0.18699999999999939</v>
-      </c>
-      <c r="E24">
-        <v>4.8130000000000006</v>
-      </c>
-      <c r="F24">
-        <v>9.8130000000000006</v>
+      <c r="B17" s="3">
+        <v>-12.680000000000003</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-7.6800000000000033</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-2.6800000000000033</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.3199999999999967</v>
+      </c>
+      <c r="F17" s="3">
+        <v>7.3199999999999967</v>
       </c>
     </row>
   </sheetData>
